--- a/biology/Zoologie/Isodactylactis_tardiva/Isodactylactis_tardiva.xlsx
+++ b/biology/Zoologie/Isodactylactis_tardiva/Isodactylactis_tardiva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isodactylactis tardiva est une espèce de cnidaires anthozoaires de la famille des Cerianthidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,11 +579,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Isodactylactis tardiva (Senna, 1907)[1].
-L'espèce a été initialement classée dans le genre Dactylactis sous le protonyme Dactylactis tardiva Senna, 1907[1].
-Isodactylactis tardiva a pour synonyme[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Isodactylactis tardiva (Senna, 1907).
+L'espèce a été initialement classée dans le genre Dactylactis sous le protonyme Dactylactis tardiva Senna, 1907.
+Isodactylactis tardiva a pour synonyme :
 Dactylactis tardiva Senna, 1907</t>
         </is>
       </c>
@@ -596,7 +614,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(it) A. Senna, 1907, « Nuove larve pelagiche di Ceriantidi e di Zoantidi », Monitore Zoologico Italiano, vol. 18, p. 96-102 (lire en ligne).</t>
         </is>
